--- a/config/excel/SkillDefine.xlsx
+++ b/config/excel/SkillDefine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hello\source\repos\mmo-server\Tools\excel2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\MMORPG2\Tools\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B29CA5-3A4C-43E9-ABF6-80ED63A776BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D87FE-8D0D-472D-91F4-34B5276D8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,124 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>15005</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{5C0C65C1-2679-403D-B909-0474D59117CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>冷却时间:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前摇结束进入激活状态时，开始计算冷却时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{C3942FAA-8EA3-4F43-9083-90E9ED8D8F79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>影响区域:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+命中目标之后，对目标附近单位造成攻击，每个单位独立计算伤害。
+此处为圆形半径。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{1BB2961F-64C4-4C1F-9DEA-89920E12BEB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>持续时间:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+激活状态的持续时间。
+（蓄气、激活、冷却）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y3" authorId="0" shapeId="0" xr:uid="{1E994992-7A60-45B1-9F5C-76ECCAF05057}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>命中延迟:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能激活之后多久触发伤害，多段数值代表多段伤害。对投射物技能无效。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,386 +180,397 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃噬心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横剑击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑荡八荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身周围造成范围伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火灵咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师的基础法术，无消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士的基础招式，无消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对单个目标造成物理攻击，添加流血效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南明离火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitArt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/skill_icon_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/skill_icon_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/skill_icon_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/skill_icon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons/stoune_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法前摇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.3,0.6,0.9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标位置造成范围法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntonateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否投射物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects/Hits/Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects/Hits/Holy hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects/Fly/FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intonate</t>
+  </si>
+  <si>
+    <t>Anim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前摇动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects/Hits/Stones hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪近战[物理]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪通用近战物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack04_Spinning_SwordAndShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.4,0.8,1.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨灵普通攻击，法伤远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨灵普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissileSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法攻加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>点</t>
+  </si>
+  <si>
+    <t>单位</t>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑刃噬心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横剑击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑荡八荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自身周围造成范围伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火灵咒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师的基础法术，无消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士的基础招式，无消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对单个目标造成物理攻击，添加流血效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南明离火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitArt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/skill_icon_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/skill_icon_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/skill_icon_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/skill_icon_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icons/stoune_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法前摇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.3,0.6,0.9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标位置造成范围法术伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntonateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否投射物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects/Hits/Explosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects/Hits/Holy hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects/Fly/FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intonate</t>
-  </si>
-  <si>
-    <t>Anim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前摇动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects/Hits/Stones hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野怪近战[物理]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野怪通用近战物理攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack04_Spinning_SwordAndShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.4,0.8,1.2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +601,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -535,7 +677,58 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -810,12 +1003,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -851,91 +1044,91 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -991,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>1</v>
@@ -1012,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -1032,94 +1225,94 @@
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="AD3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,10 +1326,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1145,13 +1338,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="K4" s="1">
         <v>1.5</v>
@@ -1166,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -1181,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -1193,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AA4" s="1">
         <v>20</v>
@@ -1219,10 +1412,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1231,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -1252,10 +1445,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="1">
         <v>5</v>
@@ -1267,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1279,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AA5" s="1">
         <v>40</v>
@@ -1308,10 +1501,10 @@
         <v>1003</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1320,13 +1513,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="K6" s="1">
         <v>3.5</v>
@@ -1341,10 +1534,10 @@
         <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="1">
         <v>10</v>
@@ -1356,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V6" s="1">
         <v>4000</v>
@@ -1368,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AA6" s="1">
         <v>60</v>
@@ -1394,10 +1587,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1406,13 +1599,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1">
         <v>1.5</v>
@@ -1427,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -1442,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -1469,10 +1662,10 @@
         <v>2002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1481,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
@@ -1502,10 +1695,10 @@
         <v>35</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -1514,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="T8" s="1">
         <v>15000</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="V8" s="1">
         <v>4000</v>
@@ -1532,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -1553,10 +1746,10 @@
         <v>2003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1565,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -1586,10 +1779,10 @@
         <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="1">
         <v>10</v>
@@ -1601,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
@@ -1613,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
@@ -1639,10 +1832,10 @@
         <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1651,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
@@ -1672,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -1684,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -1696,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AA10" s="1">
         <v>50</v>
@@ -1709,11 +1902,107 @@
       </c>
       <c r="AD10" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>102</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="6">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>120</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H11" xr:uid="{7010AB3A-3F24-4817-9766-9D4E0AE2685D}">
+      <formula1>"普通攻击,技能"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J11" xr:uid="{A62AA4E0-858F-46B4-8F14-FE84F38D2B6D}">
+      <formula1>"单位,点,None"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>